--- a/doc/KeyV4/standard_dict - V4_1.3.xlsx
+++ b/doc/KeyV4/standard_dict - V4_1.3.xlsx
@@ -9,17 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Method1" sheetId="1" r:id="rId1"/>
     <sheet name="Method2" sheetId="12" r:id="rId2"/>
-    <sheet name="Method3" sheetId="3" r:id="rId3"/>
-    <sheet name="StdInfo" sheetId="4" r:id="rId4"/>
+    <sheet name="StdInfo" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Method1!$A$1:$G$836</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3">StdInfo!$B$1:$B$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2">StdInfo!$B$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3820" uniqueCount="1871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3723" uniqueCount="1829">
   <si>
     <t>SpName</t>
   </si>
@@ -5262,120 +5261,6 @@
     <t>LPG 24:1</t>
   </si>
   <si>
-    <t>Chol 23</t>
-  </si>
-  <si>
-    <t>dChol 23</t>
-  </si>
-  <si>
-    <t>Chol 15</t>
-  </si>
-  <si>
-    <t>dChol 15</t>
-  </si>
-  <si>
-    <t>CE2 12:0</t>
-  </si>
-  <si>
-    <t>dCE2 16:0</t>
-  </si>
-  <si>
-    <t>CE2 14:0</t>
-  </si>
-  <si>
-    <t>CE2 14:1</t>
-  </si>
-  <si>
-    <t>dCE2 16:1</t>
-  </si>
-  <si>
-    <t>CE2 15:0</t>
-  </si>
-  <si>
-    <t>CE2 16:0</t>
-  </si>
-  <si>
-    <t>CE2 16:1</t>
-  </si>
-  <si>
-    <t>CE2 17:0</t>
-  </si>
-  <si>
-    <t>CE2 18:0</t>
-  </si>
-  <si>
-    <t>CE2 18:1</t>
-  </si>
-  <si>
-    <t>dCE2 18:1</t>
-  </si>
-  <si>
-    <t>CE2 18:2</t>
-  </si>
-  <si>
-    <t>dCE2 18:2</t>
-  </si>
-  <si>
-    <t>CE2 18:3</t>
-  </si>
-  <si>
-    <t>dCE2 20:3</t>
-  </si>
-  <si>
-    <t>CE2 18:4</t>
-  </si>
-  <si>
-    <t>dCE2 20:4</t>
-  </si>
-  <si>
-    <t>CE2 20:0</t>
-  </si>
-  <si>
-    <t>CE2 20:1</t>
-  </si>
-  <si>
-    <t>CE2 20:2</t>
-  </si>
-  <si>
-    <t>CE2 20:3</t>
-  </si>
-  <si>
-    <t>CE2 20:4</t>
-  </si>
-  <si>
-    <t>CE2 20:5</t>
-  </si>
-  <si>
-    <t>dCE2 20:5</t>
-  </si>
-  <si>
-    <t>CE2 22:0</t>
-  </si>
-  <si>
-    <t>CE2 22:1</t>
-  </si>
-  <si>
-    <t>CE2 22:2</t>
-  </si>
-  <si>
-    <t>CE2 22:4</t>
-  </si>
-  <si>
-    <t>CE2 22:5</t>
-  </si>
-  <si>
-    <t>CE2 22:6</t>
-  </si>
-  <si>
-    <t>dCE2 22:6</t>
-  </si>
-  <si>
-    <t>CE2 24:0</t>
-  </si>
-  <si>
-    <t>CE2 24:1</t>
-  </si>
-  <si>
     <t>Avanti ultimate splashone</t>
   </si>
   <si>
@@ -5563,18 +5448,6 @@
   </si>
   <si>
     <t>PE supplement d5</t>
-  </si>
-  <si>
-    <t>Chol</t>
-  </si>
-  <si>
-    <t>dChol 2:0</t>
-  </si>
-  <si>
-    <t>dChol 2:0_15</t>
-  </si>
-  <si>
-    <t>dChol</t>
   </si>
   <si>
     <t>DG 12:0_20:0</t>
@@ -6017,7 +5890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -6070,7 +5943,6 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
@@ -6481,7 +6353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ836"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A681" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A681" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K737" sqref="K737"/>
     </sheetView>
   </sheetViews>
@@ -29923,7 +29795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G925"/>
   <sheetViews>
-    <sheetView topLeftCell="A903" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A756" workbookViewId="0">
       <selection activeCell="K930" sqref="K930"/>
     </sheetView>
   </sheetViews>
@@ -30685,7 +30557,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="72" t="s">
+      <c r="A28" s="71" t="s">
         <v>843</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -30713,7 +30585,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="71" t="s">
         <v>1576</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -44489,7 +44361,7 @@
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A521" s="73" t="s">
+      <c r="A521" s="72" t="s">
         <v>1347</v>
       </c>
       <c r="B521" s="1" t="s">
@@ -44517,7 +44389,7 @@
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A522" s="74" t="s">
+      <c r="A522" s="73" t="s">
         <v>1352</v>
       </c>
       <c r="B522" s="1" t="s">
@@ -44545,7 +44417,7 @@
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A523" s="74" t="s">
+      <c r="A523" s="73" t="s">
         <v>1353</v>
       </c>
       <c r="B523" s="1" t="s">
@@ -44573,7 +44445,7 @@
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A524" s="74" t="s">
+      <c r="A524" s="73" t="s">
         <v>1357</v>
       </c>
       <c r="B524" s="1" t="s">
@@ -44601,7 +44473,7 @@
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A525" s="74" t="s">
+      <c r="A525" s="73" t="s">
         <v>1358</v>
       </c>
       <c r="B525" s="1" t="s">
@@ -44629,7 +44501,7 @@
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A526" s="74" t="s">
+      <c r="A526" s="73" t="s">
         <v>1362</v>
       </c>
       <c r="B526" s="1" t="s">
@@ -44657,7 +44529,7 @@
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A527" s="74" t="s">
+      <c r="A527" s="73" t="s">
         <v>1363</v>
       </c>
       <c r="B527" s="1" t="s">
@@ -44685,7 +44557,7 @@
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A528" s="74" t="s">
+      <c r="A528" s="73" t="s">
         <v>1364</v>
       </c>
       <c r="B528" s="1" t="s">
@@ -44713,7 +44585,7 @@
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A529" s="74" t="s">
+      <c r="A529" s="73" t="s">
         <v>1366</v>
       </c>
       <c r="B529" s="1" t="s">
@@ -44741,7 +44613,7 @@
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A530" s="74" t="s">
+      <c r="A530" s="73" t="s">
         <v>1367</v>
       </c>
       <c r="B530" s="1" t="s">
@@ -44769,7 +44641,7 @@
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A531" s="74" t="s">
+      <c r="A531" s="73" t="s">
         <v>1368</v>
       </c>
       <c r="B531" s="1" t="s">
@@ -44797,7 +44669,7 @@
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A532" s="74" t="s">
+      <c r="A532" s="73" t="s">
         <v>1370</v>
       </c>
       <c r="B532" s="1" t="s">
@@ -44825,7 +44697,7 @@
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A533" s="74" t="s">
+      <c r="A533" s="73" t="s">
         <v>1453</v>
       </c>
       <c r="B533" s="1" t="s">
@@ -44853,7 +44725,7 @@
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A534" s="74" t="s">
+      <c r="A534" s="73" t="s">
         <v>1454</v>
       </c>
       <c r="B534" s="1" t="s">
@@ -44881,7 +44753,7 @@
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A535" s="74" t="s">
+      <c r="A535" s="73" t="s">
         <v>1455</v>
       </c>
       <c r="B535" s="1" t="s">
@@ -44909,7 +44781,7 @@
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A536" s="74" t="s">
+      <c r="A536" s="73" t="s">
         <v>1457</v>
       </c>
       <c r="B536" s="1" t="s">
@@ -44937,7 +44809,7 @@
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A537" s="74" t="s">
+      <c r="A537" s="73" t="s">
         <v>1458</v>
       </c>
       <c r="B537" s="1" t="s">
@@ -44965,7 +44837,7 @@
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A538" s="74" t="s">
+      <c r="A538" s="73" t="s">
         <v>1459</v>
       </c>
       <c r="B538" s="1" t="s">
@@ -44993,7 +44865,7 @@
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A539" s="74" t="s">
+      <c r="A539" s="73" t="s">
         <v>1461</v>
       </c>
       <c r="B539" s="1" t="s">
@@ -45021,7 +44893,7 @@
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A540" s="74" t="s">
+      <c r="A540" s="73" t="s">
         <v>1467</v>
       </c>
       <c r="B540" s="1" t="s">
@@ -45049,7 +44921,7 @@
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A541" s="74" t="s">
+      <c r="A541" s="73" t="s">
         <v>1536</v>
       </c>
       <c r="B541" s="1" t="s">
@@ -45077,7 +44949,7 @@
       </c>
     </row>
     <row r="542" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A542" s="75" t="s">
+      <c r="A542" s="74" t="s">
         <v>1537</v>
       </c>
       <c r="B542" s="1" t="s">
@@ -45105,7 +44977,7 @@
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A543" s="76" t="s">
+      <c r="A543" s="75" t="s">
         <v>1577</v>
       </c>
       <c r="B543" s="1" t="s">
@@ -45133,7 +45005,7 @@
       </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A544" s="77" t="s">
+      <c r="A544" s="76" t="s">
         <v>1578</v>
       </c>
       <c r="B544" s="1" t="s">
@@ -45161,7 +45033,7 @@
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A545" s="77" t="s">
+      <c r="A545" s="76" t="s">
         <v>1579</v>
       </c>
       <c r="B545" s="1" t="s">
@@ -45189,7 +45061,7 @@
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A546" s="77" t="s">
+      <c r="A546" s="76" t="s">
         <v>1063</v>
       </c>
       <c r="B546" s="1" t="s">
@@ -45217,7 +45089,7 @@
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A547" s="77" t="s">
+      <c r="A547" s="76" t="s">
         <v>1580</v>
       </c>
       <c r="B547" s="1" t="s">
@@ -45245,7 +45117,7 @@
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A548" s="77" t="s">
+      <c r="A548" s="76" t="s">
         <v>1581</v>
       </c>
       <c r="B548" s="1" t="s">
@@ -45273,7 +45145,7 @@
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A549" s="77" t="s">
+      <c r="A549" s="76" t="s">
         <v>1582</v>
       </c>
       <c r="B549" s="1" t="s">
@@ -45301,7 +45173,7 @@
       </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A550" s="77" t="s">
+      <c r="A550" s="76" t="s">
         <v>1583</v>
       </c>
       <c r="B550" s="1" t="s">
@@ -45329,7 +45201,7 @@
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A551" s="77" t="s">
+      <c r="A551" s="76" t="s">
         <v>1584</v>
       </c>
       <c r="B551" s="1" t="s">
@@ -45357,7 +45229,7 @@
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A552" s="76" t="s">
+      <c r="A552" s="75" t="s">
         <v>1585</v>
       </c>
       <c r="B552" s="1" t="s">
@@ -45385,7 +45257,7 @@
       </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A553" s="77" t="s">
+      <c r="A553" s="76" t="s">
         <v>1586</v>
       </c>
       <c r="B553" s="1" t="s">
@@ -45413,7 +45285,7 @@
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A554" s="77" t="s">
+      <c r="A554" s="76" t="s">
         <v>1587</v>
       </c>
       <c r="B554" s="1" t="s">
@@ -45441,7 +45313,7 @@
       </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A555" s="77" t="s">
+      <c r="A555" s="76" t="s">
         <v>1588</v>
       </c>
       <c r="B555" s="1" t="s">
@@ -45469,7 +45341,7 @@
       </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A556" s="77" t="s">
+      <c r="A556" s="76" t="s">
         <v>1589</v>
       </c>
       <c r="B556" s="1" t="s">
@@ -45497,7 +45369,7 @@
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A557" s="77" t="s">
+      <c r="A557" s="76" t="s">
         <v>1590</v>
       </c>
       <c r="B557" s="1" t="s">
@@ -45525,7 +45397,7 @@
       </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A558" s="77" t="s">
+      <c r="A558" s="76" t="s">
         <v>1591</v>
       </c>
       <c r="B558" s="1" t="s">
@@ -45553,7 +45425,7 @@
       </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A559" s="77" t="s">
+      <c r="A559" s="76" t="s">
         <v>1592</v>
       </c>
       <c r="B559" s="1" t="s">
@@ -45581,7 +45453,7 @@
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A560" s="78" t="s">
+      <c r="A560" s="77" t="s">
         <v>1593</v>
       </c>
       <c r="B560" s="1" t="s">
@@ -46337,7 +46209,7 @@
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A587" s="72" t="s">
+      <c r="A587" s="71" t="s">
         <v>870</v>
       </c>
       <c r="B587" s="1" t="s">
@@ -46365,7 +46237,7 @@
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A588" s="72" t="s">
+      <c r="A588" s="71" t="s">
         <v>875</v>
       </c>
       <c r="B588" s="1" t="s">
@@ -46393,7 +46265,7 @@
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A589" s="72" t="s">
+      <c r="A589" s="71" t="s">
         <v>879</v>
       </c>
       <c r="B589" s="1" t="s">
@@ -46421,7 +46293,7 @@
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A590" s="72" t="s">
+      <c r="A590" s="71" t="s">
         <v>883</v>
       </c>
       <c r="B590" s="1" t="s">
@@ -46449,7 +46321,7 @@
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A591" s="72" t="s">
+      <c r="A591" s="71" t="s">
         <v>894</v>
       </c>
       <c r="B591" s="1" t="s">
@@ -48045,8 +47917,8 @@
       </c>
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A648" s="79" t="s">
-        <v>1848</v>
+      <c r="A648" s="78" t="s">
+        <v>1806</v>
       </c>
       <c r="B648" s="1" t="s">
         <v>912</v>
@@ -48073,7 +47945,7 @@
       </c>
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A649" s="79" t="s">
+      <c r="A649" s="78" t="s">
         <v>919</v>
       </c>
       <c r="B649" s="1" t="s">
@@ -48101,8 +47973,8 @@
       </c>
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A650" s="79" t="s">
-        <v>1849</v>
+      <c r="A650" s="78" t="s">
+        <v>1807</v>
       </c>
       <c r="B650" s="1" t="s">
         <v>912</v>
@@ -48129,8 +48001,8 @@
       </c>
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A651" s="79" t="s">
-        <v>1850</v>
+      <c r="A651" s="78" t="s">
+        <v>1808</v>
       </c>
       <c r="B651" s="1" t="s">
         <v>912</v>
@@ -48157,8 +48029,8 @@
       </c>
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A652" s="79" t="s">
-        <v>1851</v>
+      <c r="A652" s="78" t="s">
+        <v>1809</v>
       </c>
       <c r="B652" s="1" t="s">
         <v>912</v>
@@ -48185,7 +48057,7 @@
       </c>
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A653" s="79" t="s">
+      <c r="A653" s="78" t="s">
         <v>931</v>
       </c>
       <c r="B653" s="1" t="s">
@@ -48213,8 +48085,8 @@
       </c>
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A654" s="79" t="s">
-        <v>1852</v>
+      <c r="A654" s="78" t="s">
+        <v>1810</v>
       </c>
       <c r="B654" s="1" t="s">
         <v>912</v>
@@ -48241,8 +48113,8 @@
       </c>
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A655" s="79" t="s">
-        <v>1853</v>
+      <c r="A655" s="78" t="s">
+        <v>1811</v>
       </c>
       <c r="B655" s="1" t="s">
         <v>920</v>
@@ -48269,8 +48141,8 @@
       </c>
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A656" s="79" t="s">
-        <v>1854</v>
+      <c r="A656" s="78" t="s">
+        <v>1812</v>
       </c>
       <c r="B656" s="1" t="s">
         <v>920</v>
@@ -48297,8 +48169,8 @@
       </c>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A657" s="79" t="s">
-        <v>1855</v>
+      <c r="A657" s="78" t="s">
+        <v>1813</v>
       </c>
       <c r="B657" s="1" t="s">
         <v>920</v>
@@ -48325,8 +48197,8 @@
       </c>
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A658" s="79" t="s">
-        <v>1856</v>
+      <c r="A658" s="78" t="s">
+        <v>1814</v>
       </c>
       <c r="B658" s="1" t="s">
         <v>928</v>
@@ -48353,8 +48225,8 @@
       </c>
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A659" s="79" t="s">
-        <v>1857</v>
+      <c r="A659" s="78" t="s">
+        <v>1815</v>
       </c>
       <c r="B659" s="1" t="s">
         <v>928</v>
@@ -48381,8 +48253,8 @@
       </c>
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A660" s="79" t="s">
-        <v>1858</v>
+      <c r="A660" s="78" t="s">
+        <v>1816</v>
       </c>
       <c r="B660" s="1" t="s">
         <v>920</v>
@@ -48409,8 +48281,8 @@
       </c>
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A661" s="79" t="s">
-        <v>1859</v>
+      <c r="A661" s="78" t="s">
+        <v>1817</v>
       </c>
       <c r="B661" s="1" t="s">
         <v>928</v>
@@ -48437,8 +48309,8 @@
       </c>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A662" s="79" t="s">
-        <v>1860</v>
+      <c r="A662" s="78" t="s">
+        <v>1818</v>
       </c>
       <c r="B662" s="1" t="s">
         <v>928</v>
@@ -48465,8 +48337,8 @@
       </c>
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A663" s="79" t="s">
-        <v>1861</v>
+      <c r="A663" s="78" t="s">
+        <v>1819</v>
       </c>
       <c r="B663" s="1" t="s">
         <v>928</v>
@@ -48493,8 +48365,8 @@
       </c>
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A664" s="79" t="s">
-        <v>1862</v>
+      <c r="A664" s="78" t="s">
+        <v>1820</v>
       </c>
       <c r="B664" s="1" t="s">
         <v>928</v>
@@ -48521,8 +48393,8 @@
       </c>
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A665" s="79" t="s">
-        <v>1863</v>
+      <c r="A665" s="78" t="s">
+        <v>1821</v>
       </c>
       <c r="B665" s="1" t="s">
         <v>920</v>
@@ -48549,8 +48421,8 @@
       </c>
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A666" s="79" t="s">
-        <v>1864</v>
+      <c r="A666" s="78" t="s">
+        <v>1822</v>
       </c>
       <c r="B666" s="1" t="s">
         <v>920</v>
@@ -48577,8 +48449,8 @@
       </c>
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A667" s="79" t="s">
-        <v>1865</v>
+      <c r="A667" s="78" t="s">
+        <v>1823</v>
       </c>
       <c r="B667" s="1" t="s">
         <v>947</v>
@@ -48605,8 +48477,8 @@
       </c>
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A668" s="79" t="s">
-        <v>1866</v>
+      <c r="A668" s="78" t="s">
+        <v>1824</v>
       </c>
       <c r="B668" s="1" t="s">
         <v>947</v>
@@ -48633,8 +48505,8 @@
       </c>
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A669" s="79" t="s">
-        <v>1867</v>
+      <c r="A669" s="78" t="s">
+        <v>1825</v>
       </c>
       <c r="B669" s="1" t="s">
         <v>947</v>
@@ -48661,8 +48533,8 @@
       </c>
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A670" s="79" t="s">
-        <v>1868</v>
+      <c r="A670" s="78" t="s">
+        <v>1826</v>
       </c>
       <c r="B670" s="1" t="s">
         <v>947</v>
@@ -48689,8 +48561,8 @@
       </c>
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A671" s="79" t="s">
-        <v>1869</v>
+      <c r="A671" s="78" t="s">
+        <v>1827</v>
       </c>
       <c r="B671" s="1" t="s">
         <v>947</v>
@@ -48717,8 +48589,8 @@
       </c>
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A672" s="79" t="s">
-        <v>1870</v>
+      <c r="A672" s="78" t="s">
+        <v>1828</v>
       </c>
       <c r="B672" s="1" t="s">
         <v>947</v>
@@ -48829,7 +48701,7 @@
       </c>
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A676" s="72" t="s">
+      <c r="A676" s="71" t="s">
         <v>901</v>
       </c>
       <c r="B676" s="1" t="s">
@@ -48857,7 +48729,7 @@
       </c>
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A677" s="72" t="s">
+      <c r="A677" s="71" t="s">
         <v>912</v>
       </c>
       <c r="B677" s="1" t="s">
@@ -48885,7 +48757,7 @@
       </c>
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A678" s="72" t="s">
+      <c r="A678" s="71" t="s">
         <v>920</v>
       </c>
       <c r="B678" s="1" t="s">
@@ -48913,7 +48785,7 @@
       </c>
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A679" s="72" t="s">
+      <c r="A679" s="71" t="s">
         <v>928</v>
       </c>
       <c r="B679" s="1" t="s">
@@ -48941,7 +48813,7 @@
       </c>
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A680" s="72" t="s">
+      <c r="A680" s="71" t="s">
         <v>947</v>
       </c>
       <c r="B680" s="1" t="s">
@@ -48969,7 +48841,7 @@
       </c>
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A681" s="80" t="s">
+      <c r="A681" s="79" t="s">
         <v>1594</v>
       </c>
       <c r="B681" s="1" t="s">
@@ -48997,7 +48869,7 @@
       </c>
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A682" s="80" t="s">
+      <c r="A682" s="79" t="s">
         <v>1595</v>
       </c>
       <c r="B682" s="1" t="s">
@@ -49025,7 +48897,7 @@
       </c>
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A683" s="80" t="s">
+      <c r="A683" s="79" t="s">
         <v>1596</v>
       </c>
       <c r="B683" s="1" t="s">
@@ -49053,7 +48925,7 @@
       </c>
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A684" s="80" t="s">
+      <c r="A684" s="79" t="s">
         <v>1597</v>
       </c>
       <c r="B684" s="1" t="s">
@@ -49081,7 +48953,7 @@
       </c>
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A685" s="80" t="s">
+      <c r="A685" s="79" t="s">
         <v>1598</v>
       </c>
       <c r="B685" s="1" t="s">
@@ -49277,7 +49149,7 @@
       </c>
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A692" s="81" t="s">
+      <c r="A692" s="80" t="s">
         <v>975</v>
       </c>
       <c r="B692" s="1" t="s">
@@ -49305,7 +49177,7 @@
       </c>
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A693" s="81" t="s">
+      <c r="A693" s="80" t="s">
         <v>977</v>
       </c>
       <c r="B693" s="1" t="s">
@@ -49333,7 +49205,7 @@
       </c>
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A694" s="81" t="s">
+      <c r="A694" s="80" t="s">
         <v>978</v>
       </c>
       <c r="B694" s="1" t="s">
@@ -49361,7 +49233,7 @@
       </c>
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A695" s="81" t="s">
+      <c r="A695" s="80" t="s">
         <v>980</v>
       </c>
       <c r="B695" s="1" t="s">
@@ -49389,7 +49261,7 @@
       </c>
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A696" s="81" t="s">
+      <c r="A696" s="80" t="s">
         <v>981</v>
       </c>
       <c r="B696" s="1" t="s">
@@ -49417,7 +49289,7 @@
       </c>
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A697" s="81" t="s">
+      <c r="A697" s="80" t="s">
         <v>982</v>
       </c>
       <c r="B697" s="1" t="s">
@@ -49445,7 +49317,7 @@
       </c>
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A698" s="72" t="s">
+      <c r="A698" s="71" t="s">
         <v>967</v>
       </c>
       <c r="B698" s="1" t="s">
@@ -49473,7 +49345,7 @@
       </c>
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A699" s="72" t="s">
+      <c r="A699" s="71" t="s">
         <v>970</v>
       </c>
       <c r="B699" s="1" t="s">
@@ -49501,7 +49373,7 @@
       </c>
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A700" s="72" t="s">
+      <c r="A700" s="71" t="s">
         <v>973</v>
       </c>
       <c r="B700" s="1" t="s">
@@ -49529,7 +49401,7 @@
       </c>
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A701" s="72" t="s">
+      <c r="A701" s="71" t="s">
         <v>976</v>
       </c>
       <c r="B701" s="1" t="s">
@@ -49557,7 +49429,7 @@
       </c>
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A702" s="72" t="s">
+      <c r="A702" s="71" t="s">
         <v>979</v>
       </c>
       <c r="B702" s="1" t="s">
@@ -49753,7 +49625,7 @@
       </c>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A709" s="81" t="s">
+      <c r="A709" s="80" t="s">
         <v>990</v>
       </c>
       <c r="B709" s="1" t="s">
@@ -49781,7 +49653,7 @@
       </c>
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A710" s="81" t="s">
+      <c r="A710" s="80" t="s">
         <v>991</v>
       </c>
       <c r="B710" s="1" t="s">
@@ -49809,7 +49681,7 @@
       </c>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A711" s="81" t="s">
+      <c r="A711" s="80" t="s">
         <v>992</v>
       </c>
       <c r="B711" s="1" t="s">
@@ -49837,7 +49709,7 @@
       </c>
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A712" s="81" t="s">
+      <c r="A712" s="80" t="s">
         <v>993</v>
       </c>
       <c r="B712" s="1" t="s">
@@ -49865,7 +49737,7 @@
       </c>
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A713" s="81" t="s">
+      <c r="A713" s="80" t="s">
         <v>994</v>
       </c>
       <c r="B713" s="1" t="s">
@@ -49893,7 +49765,7 @@
       </c>
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A714" s="81" t="s">
+      <c r="A714" s="80" t="s">
         <v>995</v>
       </c>
       <c r="B714" s="1" t="s">
@@ -49921,7 +49793,7 @@
       </c>
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A715" s="72" t="s">
+      <c r="A715" s="71" t="s">
         <v>984</v>
       </c>
       <c r="B715" s="1" t="s">
@@ -50285,7 +50157,7 @@
       </c>
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A728" s="72" t="s">
+      <c r="A728" s="71" t="s">
         <v>997</v>
       </c>
       <c r="B728" s="1" t="s">
@@ -50649,7 +50521,7 @@
       </c>
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A741" s="82" t="s">
+      <c r="A741" s="81" t="s">
         <v>1010</v>
       </c>
       <c r="B741" s="1" t="s">
@@ -51769,7 +51641,7 @@
       </c>
     </row>
     <row r="781" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A781" s="72" t="s">
+      <c r="A781" s="71" t="s">
         <v>1023</v>
       </c>
       <c r="B781" s="1" t="s">
@@ -52525,7 +52397,7 @@
       </c>
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A808" s="72" t="s">
+      <c r="A808" s="71" t="s">
         <v>1599</v>
       </c>
       <c r="B808" s="1" t="s">
@@ -52553,7 +52425,7 @@
       </c>
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A809" s="72" t="s">
+      <c r="A809" s="71" t="s">
         <v>1606</v>
       </c>
       <c r="B809" s="1" t="s">
@@ -52581,7 +52453,7 @@
       </c>
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A810" s="72" t="s">
+      <c r="A810" s="71" t="s">
         <v>1613</v>
       </c>
       <c r="B810" s="1" t="s">
@@ -53337,7 +53209,7 @@
       </c>
     </row>
     <row r="837" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A837" s="72" t="s">
+      <c r="A837" s="71" t="s">
         <v>1627</v>
       </c>
       <c r="B837" s="1" t="s">
@@ -53365,7 +53237,7 @@
       </c>
     </row>
     <row r="838" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A838" s="72" t="s">
+      <c r="A838" s="71" t="s">
         <v>1634</v>
       </c>
       <c r="B838" s="1" t="s">
@@ -53393,7 +53265,7 @@
       </c>
     </row>
     <row r="839" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A839" s="72" t="s">
+      <c r="A839" s="71" t="s">
         <v>1641</v>
       </c>
       <c r="B839" s="1" t="s">
@@ -54121,7 +53993,7 @@
       </c>
     </row>
     <row r="865" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A865" s="72" t="s">
+      <c r="A865" s="71" t="s">
         <v>1678</v>
       </c>
       <c r="B865" s="1" t="s">
@@ -54149,7 +54021,7 @@
       </c>
     </row>
     <row r="866" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A866" s="72" t="s">
+      <c r="A866" s="71" t="s">
         <v>1683</v>
       </c>
       <c r="B866" s="1" t="s">
@@ -54177,7 +54049,7 @@
       </c>
     </row>
     <row r="867" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A867" s="72" t="s">
+      <c r="A867" s="71" t="s">
         <v>1689</v>
       </c>
       <c r="B867" s="1" t="s">
@@ -54933,7 +54805,7 @@
       </c>
     </row>
     <row r="894" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A894" s="72" t="s">
+      <c r="A894" s="71" t="s">
         <v>1700</v>
       </c>
       <c r="B894" s="1" t="s">
@@ -54961,7 +54833,7 @@
       </c>
     </row>
     <row r="895" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A895" s="72" t="s">
+      <c r="A895" s="71" t="s">
         <v>1705</v>
       </c>
       <c r="B895" s="1" t="s">
@@ -54989,7 +54861,7 @@
       </c>
     </row>
     <row r="896" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A896" s="72" t="s">
+      <c r="A896" s="71" t="s">
         <v>1711</v>
       </c>
       <c r="B896" s="1" t="s">
@@ -55745,7 +55617,7 @@
       </c>
     </row>
     <row r="923" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A923" s="77" t="s">
+      <c r="A923" s="76" t="s">
         <v>1656</v>
       </c>
       <c r="B923" s="11" t="s">
@@ -55773,7 +55645,7 @@
       </c>
     </row>
     <row r="924" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A924" s="77" t="s">
+      <c r="A924" s="76" t="s">
         <v>1661</v>
       </c>
       <c r="B924" s="11" t="s">
@@ -55801,7 +55673,7 @@
       </c>
     </row>
     <row r="925" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A925" s="77" t="s">
+      <c r="A925" s="76" t="s">
         <v>1667</v>
       </c>
       <c r="B925" s="11" t="s">
@@ -55835,1117 +55707,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1743</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1744</v>
-      </c>
-      <c r="C2" s="36">
-        <f>VLOOKUP(B2,StdInfo!B:E,4,FALSE())</f>
-        <v>393.39</v>
-      </c>
-      <c r="D2" s="1">
-        <f>VLOOKUP(B2,StdInfo!B:E,2,FALSE())</f>
-        <v>5</v>
-      </c>
-      <c r="E2" s="1">
-        <f t="shared" ref="E2:E39" si="0">ROUND(D2/C2*100000*F2/2.5,10)/IF(G2=TRUE(),2,1)</f>
-        <v>508.40133201150002</v>
-      </c>
-      <c r="F2" s="1">
-        <f>VLOOKUP(B2,StdInfo!B:E,3,FALSE())</f>
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1745</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1746</v>
-      </c>
-      <c r="C3" s="36">
-        <f>VLOOKUP(B3,StdInfo!B:E,4,FALSE())</f>
-        <v>393.39</v>
-      </c>
-      <c r="D3" s="1">
-        <f>VLOOKUP(B3,StdInfo!B:E,2,FALSE())</f>
-        <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <f t="shared" si="0"/>
-        <v>508.40133201150002</v>
-      </c>
-      <c r="F3" s="1">
-        <f>VLOOKUP(B3,StdInfo!B:E,3,FALSE())</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1744</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1744</v>
-      </c>
-      <c r="C4" s="36">
-        <f>VLOOKUP(B4,StdInfo!B:E,4,FALSE())</f>
-        <v>393.39</v>
-      </c>
-      <c r="D4" s="1">
-        <f>VLOOKUP(B4,StdInfo!B:E,2,FALSE())</f>
-        <v>5</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>508.40133201150002</v>
-      </c>
-      <c r="F4" s="1">
-        <f>VLOOKUP(B4,StdInfo!B:E,3,FALSE())</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1746</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1746</v>
-      </c>
-      <c r="C5" s="36">
-        <f>VLOOKUP(B5,StdInfo!B:E,4,FALSE())</f>
-        <v>393.39</v>
-      </c>
-      <c r="D5" s="1">
-        <f>VLOOKUP(B5,StdInfo!B:E,2,FALSE())</f>
-        <v>5</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>508.40133201150002</v>
-      </c>
-      <c r="F5" s="1">
-        <f>VLOOKUP(B5,StdInfo!B:E,3,FALSE())</f>
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
-        <v>1747</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>1748</v>
-      </c>
-      <c r="C6" s="36">
-        <f>VLOOKUP(B6,StdInfo!B:E,4,FALSE())</f>
-        <v>631.62</v>
-      </c>
-      <c r="D6" s="1">
-        <f>VLOOKUP(B6,StdInfo!B:E,2,FALSE())</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>22.165225927000002</v>
-      </c>
-      <c r="F6" s="1">
-        <f>VLOOKUP(B6,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G6" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
-        <v>1749</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>1748</v>
-      </c>
-      <c r="C7" s="36">
-        <f>VLOOKUP(B7,StdInfo!B:E,4,FALSE())</f>
-        <v>631.62</v>
-      </c>
-      <c r="D7" s="1">
-        <f>VLOOKUP(B7,StdInfo!B:E,2,FALSE())</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>22.165225927000002</v>
-      </c>
-      <c r="F7" s="1">
-        <f>VLOOKUP(B7,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G7" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
-        <v>1750</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>1751</v>
-      </c>
-      <c r="C8" s="36">
-        <f>VLOOKUP(B8,StdInfo!B:E,4,FALSE())</f>
-        <v>629.61</v>
-      </c>
-      <c r="D8" s="1">
-        <f>VLOOKUP(B8,StdInfo!B:E,2,FALSE())</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>22.235987357300001</v>
-      </c>
-      <c r="F8" s="1">
-        <f>VLOOKUP(B8,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G8" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>1748</v>
-      </c>
-      <c r="C9" s="36">
-        <f>VLOOKUP(B9,StdInfo!B:E,4,FALSE())</f>
-        <v>631.62</v>
-      </c>
-      <c r="D9" s="1">
-        <f>VLOOKUP(B9,StdInfo!B:E,2,FALSE())</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>22.165225927000002</v>
-      </c>
-      <c r="F9" s="1">
-        <f>VLOOKUP(B9,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G9" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
-        <v>1753</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>1748</v>
-      </c>
-      <c r="C10" s="36">
-        <f>VLOOKUP(B10,StdInfo!B:E,4,FALSE())</f>
-        <v>631.62</v>
-      </c>
-      <c r="D10" s="1">
-        <f>VLOOKUP(B10,StdInfo!B:E,2,FALSE())</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>22.165225927000002</v>
-      </c>
-      <c r="F10" s="1">
-        <f>VLOOKUP(B10,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G10" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
-        <v>1754</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>1751</v>
-      </c>
-      <c r="C11" s="36">
-        <f>VLOOKUP(B11,StdInfo!B:E,4,FALSE())</f>
-        <v>629.61</v>
-      </c>
-      <c r="D11" s="1">
-        <f>VLOOKUP(B11,StdInfo!B:E,2,FALSE())</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>22.235987357300001</v>
-      </c>
-      <c r="F11" s="1">
-        <f>VLOOKUP(B11,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G11" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>1748</v>
-      </c>
-      <c r="C12" s="36">
-        <f>VLOOKUP(B12,StdInfo!B:E,4,FALSE())</f>
-        <v>631.62</v>
-      </c>
-      <c r="D12" s="1">
-        <f>VLOOKUP(B12,StdInfo!B:E,2,FALSE())</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>22.165225927000002</v>
-      </c>
-      <c r="F12" s="1">
-        <f>VLOOKUP(B12,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G12" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>1756</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>1748</v>
-      </c>
-      <c r="C13" s="36">
-        <f>VLOOKUP(B13,StdInfo!B:E,4,FALSE())</f>
-        <v>631.62</v>
-      </c>
-      <c r="D13" s="1">
-        <f>VLOOKUP(B13,StdInfo!B:E,2,FALSE())</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>22.165225927000002</v>
-      </c>
-      <c r="F13" s="1">
-        <f>VLOOKUP(B13,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G13" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>1757</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C14" s="36">
-        <f>VLOOKUP(B14,StdInfo!B:E,4,FALSE())</f>
-        <v>657.64</v>
-      </c>
-      <c r="D14" s="1">
-        <f>VLOOKUP(B14,StdInfo!B:E,2,FALSE())</f>
-        <v>0.51</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>77.550027370600006</v>
-      </c>
-      <c r="F14" s="1">
-        <f>VLOOKUP(B14,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G14" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
-        <v>1759</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C15" s="36">
-        <f>VLOOKUP(B15,StdInfo!B:E,4,FALSE())</f>
-        <v>655.62</v>
-      </c>
-      <c r="D15" s="1">
-        <f>VLOOKUP(B15,StdInfo!B:E,2,FALSE())</f>
-        <v>1.47</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>224.2152466368</v>
-      </c>
-      <c r="F15" s="1">
-        <f>VLOOKUP(B15,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G15" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
-        <v>1761</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>1762</v>
-      </c>
-      <c r="C16" s="36">
-        <f>VLOOKUP(B16,StdInfo!B:E,4,FALSE())</f>
-        <v>681.64</v>
-      </c>
-      <c r="D16" s="1">
-        <f>VLOOKUP(B16,StdInfo!B:E,2,FALSE())</f>
-        <v>0.16</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>23.472800891999999</v>
-      </c>
-      <c r="F16" s="1">
-        <f>VLOOKUP(B16,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G16" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
-        <v>1763</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>1764</v>
-      </c>
-      <c r="C17" s="36">
-        <f>VLOOKUP(B17,StdInfo!B:E,4,FALSE())</f>
-        <v>679.62</v>
-      </c>
-      <c r="D17" s="1">
-        <f>VLOOKUP(B17,StdInfo!B:E,2,FALSE())</f>
-        <v>0.18</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>26.4853888938</v>
-      </c>
-      <c r="F17" s="1">
-        <f>VLOOKUP(B17,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G17" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
-        <v>1765</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>1748</v>
-      </c>
-      <c r="C18" s="36">
-        <f>VLOOKUP(B18,StdInfo!B:E,4,FALSE())</f>
-        <v>631.62</v>
-      </c>
-      <c r="D18" s="1">
-        <f>VLOOKUP(B18,StdInfo!B:E,2,FALSE())</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>22.165225927000002</v>
-      </c>
-      <c r="F18" s="1">
-        <f>VLOOKUP(B18,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G18" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
-        <v>1766</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C19" s="36">
-        <f>VLOOKUP(B19,StdInfo!B:E,4,FALSE())</f>
-        <v>657.64</v>
-      </c>
-      <c r="D19" s="1">
-        <f>VLOOKUP(B19,StdInfo!B:E,2,FALSE())</f>
-        <v>0.51</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="0"/>
-        <v>77.550027370600006</v>
-      </c>
-      <c r="F19" s="1">
-        <f>VLOOKUP(B19,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G19" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
-        <v>1767</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C20" s="36">
-        <f>VLOOKUP(B20,StdInfo!B:E,4,FALSE())</f>
-        <v>655.62</v>
-      </c>
-      <c r="D20" s="1">
-        <f>VLOOKUP(B20,StdInfo!B:E,2,FALSE())</f>
-        <v>1.47</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="0"/>
-        <v>224.2152466368</v>
-      </c>
-      <c r="F20" s="1">
-        <f>VLOOKUP(B20,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G20" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
-        <v>1768</v>
-      </c>
-      <c r="B21" s="46" t="s">
-        <v>1762</v>
-      </c>
-      <c r="C21" s="36">
-        <f>VLOOKUP(B21,StdInfo!B:E,4,FALSE())</f>
-        <v>681.64</v>
-      </c>
-      <c r="D21" s="1">
-        <f>VLOOKUP(B21,StdInfo!B:E,2,FALSE())</f>
-        <v>0.16</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="0"/>
-        <v>23.472800891999999</v>
-      </c>
-      <c r="F21" s="1">
-        <f>VLOOKUP(B21,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G21" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
-        <v>1769</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>1764</v>
-      </c>
-      <c r="C22" s="36">
-        <f>VLOOKUP(B22,StdInfo!B:E,4,FALSE())</f>
-        <v>679.62</v>
-      </c>
-      <c r="D22" s="1">
-        <f>VLOOKUP(B22,StdInfo!B:E,2,FALSE())</f>
-        <v>0.18</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="0"/>
-        <v>26.4853888938</v>
-      </c>
-      <c r="F22" s="1">
-        <f>VLOOKUP(B22,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G22" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
-        <v>1770</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>1771</v>
-      </c>
-      <c r="C23" s="36">
-        <f>VLOOKUP(B23,StdInfo!B:E,4,FALSE())</f>
-        <v>677.61</v>
-      </c>
-      <c r="D23" s="1">
-        <f>VLOOKUP(B23,StdInfo!B:E,2,FALSE())</f>
-        <v>0.18</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="0"/>
-        <v>26.563952716199999</v>
-      </c>
-      <c r="F23" s="1">
-        <f>VLOOKUP(B23,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G23" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
-        <v>1772</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>1748</v>
-      </c>
-      <c r="C24" s="36">
-        <f>VLOOKUP(B24,StdInfo!B:E,4,FALSE())</f>
-        <v>631.62</v>
-      </c>
-      <c r="D24" s="1">
-        <f>VLOOKUP(B24,StdInfo!B:E,2,FALSE())</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="0"/>
-        <v>22.165225927000002</v>
-      </c>
-      <c r="F24" s="1">
-        <f>VLOOKUP(B24,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G24" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C25" s="36">
-        <f>VLOOKUP(B25,StdInfo!B:E,4,FALSE())</f>
-        <v>657.64</v>
-      </c>
-      <c r="D25" s="1">
-        <f>VLOOKUP(B25,StdInfo!B:E,2,FALSE())</f>
-        <v>0.51</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="0"/>
-        <v>77.550027370600006</v>
-      </c>
-      <c r="F25" s="1">
-        <f>VLOOKUP(B25,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G25" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C26" s="36">
-        <f>VLOOKUP(B26,StdInfo!B:E,4,FALSE())</f>
-        <v>655.62</v>
-      </c>
-      <c r="D26" s="1">
-        <f>VLOOKUP(B26,StdInfo!B:E,2,FALSE())</f>
-        <v>1.47</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="0"/>
-        <v>224.2152466368</v>
-      </c>
-      <c r="F26" s="1">
-        <f>VLOOKUP(B26,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G26" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>1764</v>
-      </c>
-      <c r="C27" s="36">
-        <f>VLOOKUP(B27,StdInfo!B:E,4,FALSE())</f>
-        <v>679.62</v>
-      </c>
-      <c r="D27" s="1">
-        <f>VLOOKUP(B27,StdInfo!B:E,2,FALSE())</f>
-        <v>0.18</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="0"/>
-        <v>26.4853888938</v>
-      </c>
-      <c r="F27" s="1">
-        <f>VLOOKUP(B27,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G27" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
-        <v>1776</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>1771</v>
-      </c>
-      <c r="C28" s="36">
-        <f>VLOOKUP(B28,StdInfo!B:E,4,FALSE())</f>
-        <v>677.61</v>
-      </c>
-      <c r="D28" s="1">
-        <f>VLOOKUP(B28,StdInfo!B:E,2,FALSE())</f>
-        <v>0.18</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="0"/>
-        <v>26.563952716199999</v>
-      </c>
-      <c r="F28" s="1">
-        <f>VLOOKUP(B28,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G28" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
-        <v>1777</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>1778</v>
-      </c>
-      <c r="C29" s="36">
-        <f>VLOOKUP(B29,StdInfo!B:E,4,FALSE())</f>
-        <v>703.62</v>
-      </c>
-      <c r="D29" s="1">
-        <f>VLOOKUP(B29,StdInfo!B:E,2,FALSE())</f>
-        <v>0.22</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="0"/>
-        <v>31.2668770075</v>
-      </c>
-      <c r="F29" s="1">
-        <f>VLOOKUP(B29,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G29" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
-        <v>1779</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>1748</v>
-      </c>
-      <c r="C30" s="36">
-        <f>VLOOKUP(B30,StdInfo!B:E,4,FALSE())</f>
-        <v>631.62</v>
-      </c>
-      <c r="D30" s="1">
-        <f>VLOOKUP(B30,StdInfo!B:E,2,FALSE())</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="0"/>
-        <v>22.165225927000002</v>
-      </c>
-      <c r="F30" s="1">
-        <f>VLOOKUP(B30,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G30" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="46" t="s">
-        <v>1780</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C31" s="36">
-        <f>VLOOKUP(B31,StdInfo!B:E,4,FALSE())</f>
-        <v>657.64</v>
-      </c>
-      <c r="D31" s="1">
-        <f>VLOOKUP(B31,StdInfo!B:E,2,FALSE())</f>
-        <v>0.51</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="0"/>
-        <v>77.550027370600006</v>
-      </c>
-      <c r="F31" s="1">
-        <f>VLOOKUP(B31,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G31" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>1748</v>
-      </c>
-      <c r="C32" s="36">
-        <f>VLOOKUP(B32,StdInfo!B:E,4,FALSE())</f>
-        <v>631.62</v>
-      </c>
-      <c r="D32" s="1">
-        <f>VLOOKUP(B32,StdInfo!B:E,2,FALSE())</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="0"/>
-        <v>22.165225927000002</v>
-      </c>
-      <c r="F32" s="1">
-        <f>VLOOKUP(B32,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G32" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
-        <v>1751</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>1751</v>
-      </c>
-      <c r="C33" s="36">
-        <f>VLOOKUP(B33,StdInfo!B:E,4,FALSE())</f>
-        <v>629.61</v>
-      </c>
-      <c r="D33" s="1">
-        <f>VLOOKUP(B33,StdInfo!B:E,2,FALSE())</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="0"/>
-        <v>22.235987357300001</v>
-      </c>
-      <c r="F33" s="1">
-        <f>VLOOKUP(B33,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G33" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
-        <v>1758</v>
-      </c>
-      <c r="B34" s="46" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C34" s="36">
-        <f>VLOOKUP(B34,StdInfo!B:E,4,FALSE())</f>
-        <v>657.64</v>
-      </c>
-      <c r="D34" s="1">
-        <f>VLOOKUP(B34,StdInfo!B:E,2,FALSE())</f>
-        <v>0.51</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="0"/>
-        <v>77.550027370600006</v>
-      </c>
-      <c r="F34" s="1">
-        <f>VLOOKUP(B34,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G34" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B35" s="46" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C35" s="36">
-        <f>VLOOKUP(B35,StdInfo!B:E,4,FALSE())</f>
-        <v>655.62</v>
-      </c>
-      <c r="D35" s="1">
-        <f>VLOOKUP(B35,StdInfo!B:E,2,FALSE())</f>
-        <v>1.47</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" si="0"/>
-        <v>224.2152466368</v>
-      </c>
-      <c r="F35" s="1">
-        <f>VLOOKUP(B35,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G35" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
-        <v>1762</v>
-      </c>
-      <c r="B36" s="46" t="s">
-        <v>1762</v>
-      </c>
-      <c r="C36" s="36">
-        <f>VLOOKUP(B36,StdInfo!B:E,4,FALSE())</f>
-        <v>681.64</v>
-      </c>
-      <c r="D36" s="1">
-        <f>VLOOKUP(B36,StdInfo!B:E,2,FALSE())</f>
-        <v>0.16</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" si="0"/>
-        <v>23.472800891999999</v>
-      </c>
-      <c r="F36" s="1">
-        <f>VLOOKUP(B36,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G36" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
-        <v>1764</v>
-      </c>
-      <c r="B37" s="46" t="s">
-        <v>1764</v>
-      </c>
-      <c r="C37" s="36">
-        <f>VLOOKUP(B37,StdInfo!B:E,4,FALSE())</f>
-        <v>679.62</v>
-      </c>
-      <c r="D37" s="1">
-        <f>VLOOKUP(B37,StdInfo!B:E,2,FALSE())</f>
-        <v>0.18</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="0"/>
-        <v>26.4853888938</v>
-      </c>
-      <c r="F37" s="1">
-        <f>VLOOKUP(B37,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G37" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="46" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B38" s="46" t="s">
-        <v>1771</v>
-      </c>
-      <c r="C38" s="36">
-        <f>VLOOKUP(B38,StdInfo!B:E,4,FALSE())</f>
-        <v>677.61</v>
-      </c>
-      <c r="D38" s="1">
-        <f>VLOOKUP(B38,StdInfo!B:E,2,FALSE())</f>
-        <v>0.18</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="0"/>
-        <v>26.563952716199999</v>
-      </c>
-      <c r="F38" s="1">
-        <f>VLOOKUP(B38,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G38" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
-        <v>1778</v>
-      </c>
-      <c r="B39" s="46" t="s">
-        <v>1778</v>
-      </c>
-      <c r="C39" s="36">
-        <f>VLOOKUP(B39,StdInfo!B:E,4,FALSE())</f>
-        <v>703.62</v>
-      </c>
-      <c r="D39" s="1">
-        <f>VLOOKUP(B39,StdInfo!B:E,2,FALSE())</f>
-        <v>0.22</v>
-      </c>
-      <c r="E39" s="1">
-        <f t="shared" si="0"/>
-        <v>31.2668770075</v>
-      </c>
-      <c r="F39" s="1">
-        <f>VLOOKUP(B39,StdInfo!B:E,3,FALSE())</f>
-        <v>2.5</v>
-      </c>
-      <c r="G39" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F171"/>
-  <sheetViews>
-    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+      <selection activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56957,28 +55722,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>1781</v>
+      <c r="A1" s="46" t="s">
+        <v>1743</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
-        <v>1782</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>1783</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>1784</v>
-      </c>
-      <c r="E2" s="47" t="s">
+      <c r="B2" s="46" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E2" s="46" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1785</v>
+        <v>1747</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>414</v>
@@ -56996,7 +55761,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1786</v>
+        <v>1748</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>432</v>
@@ -57014,7 +55779,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1787</v>
+        <v>1749</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>416</v>
@@ -57032,7 +55797,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1788</v>
+        <v>1750</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>419</v>
@@ -57050,7 +55815,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1789</v>
+        <v>1751</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>426</v>
@@ -57146,7 +55911,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>1790</v>
+        <v>1752</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>546</v>
@@ -57164,7 +55929,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>1791</v>
+        <v>1753</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>564</v>
@@ -57182,7 +55947,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>1792</v>
+        <v>1754</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>548</v>
@@ -57200,7 +55965,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>1793</v>
+        <v>1755</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>551</v>
@@ -57218,7 +55983,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>1794</v>
+        <v>1756</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>558</v>
@@ -57314,7 +56079,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>1795</v>
+        <v>1757</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>680</v>
@@ -57332,7 +56097,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>1796</v>
+        <v>1758</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>698</v>
@@ -57350,7 +56115,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>1797</v>
+        <v>1759</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>682</v>
@@ -57368,7 +56133,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>1798</v>
+        <v>1760</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>685</v>
@@ -57386,7 +56151,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>1799</v>
+        <v>1761</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>692</v>
@@ -57482,67 +56247,67 @@
     </row>
     <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="47" t="s">
-        <v>1782</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>1783</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>1784</v>
-      </c>
-      <c r="E38" s="47" t="s">
+      <c r="B38" s="46" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E38" s="46" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>1800</v>
+        <v>1762</v>
       </c>
       <c r="B39" t="s">
         <v>1599</v>
       </c>
-      <c r="C39" s="48">
+      <c r="C39" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D39">
         <v>2.5</v>
       </c>
-      <c r="E39" s="48">
+      <c r="E39" s="47">
         <v>486.34820000000002</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>1801</v>
+        <v>1763</v>
       </c>
       <c r="B40" t="s">
         <v>1606</v>
       </c>
-      <c r="C40" s="48">
+      <c r="C40" s="47">
         <v>0.05</v>
       </c>
       <c r="D40" s="1">
         <v>2.5</v>
       </c>
-      <c r="E40" s="48">
+      <c r="E40" s="47">
         <v>514.37950000000001</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>1802</v>
+        <v>1764</v>
       </c>
       <c r="B41" t="s">
         <v>1613</v>
       </c>
-      <c r="C41" s="48">
+      <c r="C41" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D41" s="1">
         <v>2.5</v>
       </c>
-      <c r="E41" s="48">
+      <c r="E41" s="47">
         <v>542.41079999999999</v>
       </c>
     </row>
@@ -57551,52 +56316,52 @@
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>1803</v>
+        <v>1765</v>
       </c>
       <c r="B43" s="45" t="s">
         <v>1627</v>
       </c>
-      <c r="C43" s="49">
+      <c r="C43" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D43" s="1">
         <v>2.5</v>
       </c>
-      <c r="E43" s="49">
+      <c r="E43" s="48">
         <v>444.30130000000003</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>1804</v>
+        <v>1766</v>
       </c>
       <c r="B44" s="45" t="s">
         <v>1634</v>
       </c>
-      <c r="C44" s="49">
+      <c r="C44" s="48">
         <v>0.05</v>
       </c>
       <c r="D44" s="1">
         <v>2.5</v>
       </c>
-      <c r="E44" s="49">
+      <c r="E44" s="48">
         <v>472.33260000000001</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>1805</v>
+        <v>1767</v>
       </c>
       <c r="B45" s="45" t="s">
         <v>1641</v>
       </c>
-      <c r="C45" s="49">
+      <c r="C45" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D45" s="1">
         <v>2.5</v>
       </c>
-      <c r="E45" s="49">
+      <c r="E45" s="48">
         <v>500.3639</v>
       </c>
     </row>
@@ -57604,87 +56369,87 @@
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="50" t="s">
-        <v>1806</v>
+      <c r="A47" s="49" t="s">
+        <v>1768</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="48">
+      <c r="C47" s="47">
         <v>0.05</v>
       </c>
       <c r="D47" s="1">
         <v>2.5</v>
       </c>
-      <c r="E47" s="48">
+      <c r="E47" s="47">
         <v>722.56219999999996</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="50" t="s">
-        <v>1807</v>
+      <c r="A48" s="49" t="s">
+        <v>1769</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="48">
+      <c r="C48" s="47">
         <v>0.1</v>
       </c>
       <c r="D48" s="1">
         <v>2.5</v>
       </c>
-      <c r="E48" s="48">
+      <c r="E48" s="47">
         <v>750.59349999999995</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="50" t="s">
-        <v>1808</v>
+      <c r="A49" s="49" t="s">
+        <v>1770</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="48">
+      <c r="C49" s="47">
         <v>0.15</v>
       </c>
       <c r="D49" s="1">
         <v>2.5</v>
       </c>
-      <c r="E49" s="48">
+      <c r="E49" s="47">
         <v>778.62480000000005</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="50" t="s">
-        <v>1809</v>
+      <c r="A50" s="49" t="s">
+        <v>1771</v>
       </c>
       <c r="B50" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="48">
+      <c r="C50" s="47">
         <v>0.1</v>
       </c>
       <c r="D50" s="1">
         <v>2.5</v>
       </c>
-      <c r="E50" s="48">
+      <c r="E50" s="47">
         <v>802.62480000000005</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="50" t="s">
-        <v>1810</v>
+      <c r="A51" s="49" t="s">
+        <v>1772</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="48">
+      <c r="C51" s="47">
         <v>0.05</v>
       </c>
       <c r="D51" s="1">
         <v>2.5</v>
       </c>
-      <c r="E51" s="48">
+      <c r="E51" s="47">
         <v>828.64049999999997</v>
       </c>
     </row>
@@ -57692,13 +56457,13 @@
       <c r="B52" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="48">
+      <c r="C52" s="47">
         <v>0.05</v>
       </c>
       <c r="D52" s="1">
         <v>2.5</v>
       </c>
-      <c r="E52" s="48">
+      <c r="E52" s="47">
         <v>722.56219999999996</v>
       </c>
     </row>
@@ -57706,13 +56471,13 @@
       <c r="B53" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="48">
+      <c r="C53" s="47">
         <v>0.1</v>
       </c>
       <c r="D53" s="1">
         <v>2.5</v>
       </c>
-      <c r="E53" s="48">
+      <c r="E53" s="47">
         <v>750.59349999999995</v>
       </c>
     </row>
@@ -57720,13 +56485,13 @@
       <c r="B54" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="48">
+      <c r="C54" s="47">
         <v>0.15</v>
       </c>
       <c r="D54" s="1">
         <v>2.5</v>
       </c>
-      <c r="E54" s="48">
+      <c r="E54" s="47">
         <v>778.62480000000005</v>
       </c>
     </row>
@@ -57734,13 +56499,13 @@
       <c r="B55" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="48">
+      <c r="C55" s="47">
         <v>0.1</v>
       </c>
       <c r="D55" s="1">
         <v>2.5</v>
       </c>
-      <c r="E55" s="48">
+      <c r="E55" s="47">
         <v>802.62480000000005</v>
       </c>
     </row>
@@ -57748,13 +56513,13 @@
       <c r="B56" t="s">
         <v>49</v>
       </c>
-      <c r="C56" s="48">
+      <c r="C56" s="47">
         <v>0.05</v>
       </c>
       <c r="D56" s="1">
         <v>2.5</v>
       </c>
-      <c r="E56" s="48">
+      <c r="E56" s="47">
         <v>828.64049999999997</v>
       </c>
     </row>
@@ -57762,87 +56527,87 @@
       <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="51" t="s">
-        <v>1811</v>
+      <c r="A58" s="50" t="s">
+        <v>1773</v>
       </c>
       <c r="B58" t="s">
         <v>177</v>
       </c>
-      <c r="C58" s="49">
+      <c r="C58" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D58" s="1">
         <v>2.5</v>
       </c>
-      <c r="E58" s="49">
+      <c r="E58" s="48">
         <v>680.51530000000002</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="51" t="s">
-        <v>1812</v>
+      <c r="A59" s="50" t="s">
+        <v>1774</v>
       </c>
       <c r="B59" t="s">
         <v>180</v>
       </c>
-      <c r="C59" s="49">
+      <c r="C59" s="48">
         <v>0.05</v>
       </c>
       <c r="D59" s="1">
         <v>2.5</v>
       </c>
-      <c r="E59" s="49">
+      <c r="E59" s="48">
         <v>708.54660000000001</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="51" t="s">
-        <v>1813</v>
+      <c r="A60" s="50" t="s">
+        <v>1775</v>
       </c>
       <c r="B60" t="s">
         <v>183</v>
       </c>
-      <c r="C60" s="49">
+      <c r="C60" s="48">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D60" s="1">
         <v>2.5</v>
       </c>
-      <c r="E60" s="49">
+      <c r="E60" s="48">
         <v>736.5779</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="51" t="s">
-        <v>1814</v>
+      <c r="A61" s="50" t="s">
+        <v>1776</v>
       </c>
       <c r="B61" t="s">
         <v>187</v>
       </c>
-      <c r="C61" s="49">
+      <c r="C61" s="48">
         <v>0.05</v>
       </c>
       <c r="D61" s="1">
         <v>2.5</v>
       </c>
-      <c r="E61" s="49">
+      <c r="E61" s="48">
         <v>760.5779</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="51" t="s">
-        <v>1815</v>
+      <c r="A62" s="50" t="s">
+        <v>1777</v>
       </c>
       <c r="B62" t="s">
         <v>197</v>
       </c>
-      <c r="C62" s="49">
+      <c r="C62" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D62" s="1">
         <v>2.5</v>
       </c>
-      <c r="E62" s="49">
+      <c r="E62" s="48">
         <v>786.59349999999995</v>
       </c>
     </row>
@@ -57850,13 +56615,13 @@
       <c r="B63" t="s">
         <v>204</v>
       </c>
-      <c r="C63" s="49">
+      <c r="C63" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D63" s="1">
         <v>2.5</v>
       </c>
-      <c r="E63" s="49">
+      <c r="E63" s="48">
         <v>680.51530000000002</v>
       </c>
     </row>
@@ -57864,13 +56629,13 @@
       <c r="B64" t="s">
         <v>208</v>
       </c>
-      <c r="C64" s="49">
+      <c r="C64" s="48">
         <v>0.05</v>
       </c>
       <c r="D64" s="1">
         <v>2.5</v>
       </c>
-      <c r="E64" s="49">
+      <c r="E64" s="48">
         <v>708.54660000000001</v>
       </c>
     </row>
@@ -57878,13 +56643,13 @@
       <c r="B65" t="s">
         <v>214</v>
       </c>
-      <c r="C65" s="49">
+      <c r="C65" s="48">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D65" s="1">
         <v>2.5</v>
       </c>
-      <c r="E65" s="49">
+      <c r="E65" s="48">
         <v>736.5779</v>
       </c>
     </row>
@@ -57892,13 +56657,13 @@
       <c r="B66" t="s">
         <v>216</v>
       </c>
-      <c r="C66" s="49">
+      <c r="C66" s="48">
         <v>0.05</v>
       </c>
       <c r="D66" s="1">
         <v>2.5</v>
       </c>
-      <c r="E66" s="49">
+      <c r="E66" s="48">
         <v>760.5779</v>
       </c>
     </row>
@@ -57906,13 +56671,13 @@
       <c r="B67" t="s">
         <v>257</v>
       </c>
-      <c r="C67" s="49">
+      <c r="C67" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D67" s="1">
         <v>2.5</v>
       </c>
-      <c r="E67" s="49">
+      <c r="E67" s="48">
         <v>786.59349999999995</v>
       </c>
     </row>
@@ -57920,98 +56685,98 @@
       <c r="C68" s="1"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="52" t="s">
-        <v>1816</v>
+      <c r="A69" s="51" t="s">
+        <v>1778</v>
       </c>
       <c r="B69" t="s">
         <v>812</v>
       </c>
-      <c r="C69" s="53">
+      <c r="C69" s="52">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D69" s="1">
         <v>2.5</v>
       </c>
-      <c r="E69" s="53">
+      <c r="E69" s="52">
         <v>709.60839999999996</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="52" t="s">
-        <v>1817</v>
+      <c r="A70" s="51" t="s">
+        <v>1779</v>
       </c>
       <c r="B70" t="s">
         <v>815</v>
       </c>
-      <c r="C70" s="53">
+      <c r="C70" s="52">
         <v>0.05</v>
       </c>
       <c r="D70" s="1">
         <v>2.5</v>
       </c>
-      <c r="E70" s="53">
+      <c r="E70" s="52">
         <v>737.63969999999995</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="52" t="s">
-        <v>1818</v>
+      <c r="A71" s="51" t="s">
+        <v>1780</v>
       </c>
       <c r="B71" t="s">
         <v>818</v>
       </c>
-      <c r="C71" s="53">
+      <c r="C71" s="52">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D71" s="1">
         <v>2.5</v>
       </c>
-      <c r="E71" s="53">
+      <c r="E71" s="52">
         <v>765.67100000000005</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="52" t="s">
-        <v>1819</v>
+      <c r="A72" s="51" t="s">
+        <v>1781</v>
       </c>
       <c r="B72" t="s">
         <v>821</v>
       </c>
-      <c r="C72" s="53">
+      <c r="C72" s="52">
         <v>0.05</v>
       </c>
       <c r="D72" s="1">
         <v>2.5</v>
       </c>
-      <c r="E72" s="53">
+      <c r="E72" s="52">
         <v>793.70230000000004</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="52" t="s">
-        <v>1820</v>
+      <c r="A73" s="51" t="s">
+        <v>1782</v>
       </c>
       <c r="B73" t="s">
         <v>824</v>
       </c>
-      <c r="C73" s="53">
+      <c r="C73" s="52">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D73" s="1">
         <v>2.5</v>
       </c>
-      <c r="E73" s="53">
+      <c r="E73" s="52">
         <v>821.73360000000002</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="54" t="s">
-        <v>1821</v>
+      <c r="A78" s="53" t="s">
+        <v>1783</v>
       </c>
       <c r="B78" t="s">
         <v>1577</v>
       </c>
-      <c r="C78" s="55">
+      <c r="C78" s="54">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D78">
@@ -58022,13 +56787,13 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="54" t="s">
-        <v>1822</v>
+      <c r="A79" s="53" t="s">
+        <v>1784</v>
       </c>
       <c r="B79" t="s">
         <v>1578</v>
       </c>
-      <c r="C79" s="55">
+      <c r="C79" s="54">
         <v>0.05</v>
       </c>
       <c r="D79" s="1">
@@ -58039,13 +56804,13 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="54" t="s">
-        <v>1823</v>
+      <c r="A80" s="53" t="s">
+        <v>1785</v>
       </c>
       <c r="B80" t="s">
         <v>1579</v>
       </c>
-      <c r="C80" s="55">
+      <c r="C80" s="54">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D80" s="1">
@@ -58056,13 +56821,13 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="54" t="s">
-        <v>1824</v>
+      <c r="A81" s="53" t="s">
+        <v>1786</v>
       </c>
       <c r="B81" t="s">
         <v>1063</v>
       </c>
-      <c r="C81" s="55">
+      <c r="C81" s="54">
         <v>0.1</v>
       </c>
       <c r="D81" s="1">
@@ -58073,13 +56838,13 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="54" t="s">
-        <v>1825</v>
+      <c r="A82" s="53" t="s">
+        <v>1787</v>
       </c>
       <c r="B82" t="s">
         <v>1580</v>
       </c>
-      <c r="C82" s="55">
+      <c r="C82" s="54">
         <v>0.125</v>
       </c>
       <c r="D82" s="1">
@@ -58090,13 +56855,13 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="54" t="s">
-        <v>1826</v>
+      <c r="A83" s="53" t="s">
+        <v>1788</v>
       </c>
       <c r="B83" t="s">
         <v>1581</v>
       </c>
-      <c r="C83" s="55">
+      <c r="C83" s="54">
         <v>0.1</v>
       </c>
       <c r="D83" s="1">
@@ -58107,13 +56872,13 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="54" t="s">
-        <v>1827</v>
+      <c r="A84" s="53" t="s">
+        <v>1789</v>
       </c>
       <c r="B84" t="s">
         <v>1582</v>
       </c>
-      <c r="C84" s="55">
+      <c r="C84" s="54">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D84" s="1">
@@ -58124,13 +56889,13 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="54" t="s">
-        <v>1828</v>
+      <c r="A85" s="53" t="s">
+        <v>1790</v>
       </c>
       <c r="B85" t="s">
         <v>1583</v>
       </c>
-      <c r="C85" s="55">
+      <c r="C85" s="54">
         <v>0.05</v>
       </c>
       <c r="D85" s="1">
@@ -58141,13 +56906,13 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="54" t="s">
-        <v>1829</v>
+      <c r="A86" s="53" t="s">
+        <v>1791</v>
       </c>
       <c r="B86" t="s">
         <v>1584</v>
       </c>
-      <c r="C86" s="55">
+      <c r="C86" s="54">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D86" s="1">
@@ -58161,7 +56926,7 @@
       <c r="B87" s="39" t="s">
         <v>1585</v>
       </c>
-      <c r="C87" s="55">
+      <c r="C87" s="54">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D87" s="1">
@@ -58175,7 +56940,7 @@
       <c r="B88" s="40" t="s">
         <v>1586</v>
       </c>
-      <c r="C88" s="55">
+      <c r="C88" s="54">
         <v>0.05</v>
       </c>
       <c r="D88" s="1">
@@ -58189,7 +56954,7 @@
       <c r="B89" s="40" t="s">
         <v>1587</v>
       </c>
-      <c r="C89" s="55">
+      <c r="C89" s="54">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D89" s="1">
@@ -58203,7 +56968,7 @@
       <c r="B90" s="40" t="s">
         <v>1588</v>
       </c>
-      <c r="C90" s="55">
+      <c r="C90" s="54">
         <v>0.1</v>
       </c>
       <c r="D90" s="1">
@@ -58217,7 +56982,7 @@
       <c r="B91" s="40" t="s">
         <v>1589</v>
       </c>
-      <c r="C91" s="55">
+      <c r="C91" s="54">
         <v>0.125</v>
       </c>
       <c r="D91" s="1">
@@ -58231,7 +56996,7 @@
       <c r="B92" s="40" t="s">
         <v>1590</v>
       </c>
-      <c r="C92" s="55">
+      <c r="C92" s="54">
         <v>0.1</v>
       </c>
       <c r="D92" s="1">
@@ -58245,7 +57010,7 @@
       <c r="B93" s="40" t="s">
         <v>1591</v>
       </c>
-      <c r="C93" s="55">
+      <c r="C93" s="54">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D93" s="1">
@@ -58259,7 +57024,7 @@
       <c r="B94" s="40" t="s">
         <v>1592</v>
       </c>
-      <c r="C94" s="55">
+      <c r="C94" s="54">
         <v>0.05</v>
       </c>
       <c r="D94" s="1">
@@ -58273,7 +57038,7 @@
       <c r="B95" s="41" t="s">
         <v>1593</v>
       </c>
-      <c r="C95" s="55">
+      <c r="C95" s="54">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D95" s="1">
@@ -58285,12 +57050,12 @@
     </row>
     <row r="97" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>1830</v>
+        <v>1792</v>
       </c>
       <c r="B97" s="38" t="s">
         <v>870</v>
       </c>
-      <c r="C97" s="56">
+      <c r="C97" s="55">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D97">
@@ -58304,7 +57069,7 @@
       <c r="B98" s="38" t="s">
         <v>875</v>
       </c>
-      <c r="C98" s="56">
+      <c r="C98" s="55">
         <v>0.05</v>
       </c>
       <c r="D98" s="1">
@@ -58318,7 +57083,7 @@
       <c r="B99" s="38" t="s">
         <v>879</v>
       </c>
-      <c r="C99" s="56">
+      <c r="C99" s="55">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D99" s="1">
@@ -58332,7 +57097,7 @@
       <c r="B100" s="38" t="s">
         <v>883</v>
       </c>
-      <c r="C100" s="56">
+      <c r="C100" s="55">
         <v>0.05</v>
       </c>
       <c r="D100" s="1">
@@ -58346,7 +57111,7 @@
       <c r="B101" s="38" t="s">
         <v>894</v>
       </c>
-      <c r="C101" s="56">
+      <c r="C101" s="55">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D101" s="1">
@@ -58358,12 +57123,12 @@
     </row>
     <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>1831</v>
+        <v>1793</v>
       </c>
       <c r="B103" s="38" t="s">
         <v>901</v>
       </c>
-      <c r="C103" s="57">
+      <c r="C103" s="56">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D103" s="1">
@@ -58377,7 +57142,7 @@
       <c r="B104" s="38" t="s">
         <v>912</v>
       </c>
-      <c r="C104" s="57">
+      <c r="C104" s="56">
         <v>0.05</v>
       </c>
       <c r="D104" s="1">
@@ -58391,7 +57156,7 @@
       <c r="B105" s="38" t="s">
         <v>920</v>
       </c>
-      <c r="C105" s="57">
+      <c r="C105" s="56">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D105" s="1">
@@ -58405,7 +57170,7 @@
       <c r="B106" s="38" t="s">
         <v>928</v>
       </c>
-      <c r="C106" s="57">
+      <c r="C106" s="56">
         <v>0.05</v>
       </c>
       <c r="D106" s="1">
@@ -58419,7 +57184,7 @@
       <c r="B107" s="38" t="s">
         <v>947</v>
       </c>
-      <c r="C107" s="57">
+      <c r="C107" s="56">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D107" s="1">
@@ -58430,10 +57195,10 @@
       </c>
     </row>
     <row r="108" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="58" t="s">
+      <c r="B108" s="57" t="s">
         <v>1594</v>
       </c>
-      <c r="C108" s="57">
+      <c r="C108" s="56">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D108" s="1">
@@ -58444,10 +57209,10 @@
       </c>
     </row>
     <row r="109" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B109" s="58" t="s">
+      <c r="B109" s="57" t="s">
         <v>1595</v>
       </c>
-      <c r="C109" s="57">
+      <c r="C109" s="56">
         <v>0.05</v>
       </c>
       <c r="D109" s="1">
@@ -58458,10 +57223,10 @@
       </c>
     </row>
     <row r="110" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="58" t="s">
+      <c r="B110" s="57" t="s">
         <v>1596</v>
       </c>
-      <c r="C110" s="57">
+      <c r="C110" s="56">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D110" s="1">
@@ -58472,10 +57237,10 @@
       </c>
     </row>
     <row r="111" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B111" s="58" t="s">
+      <c r="B111" s="57" t="s">
         <v>1597</v>
       </c>
-      <c r="C111" s="57">
+      <c r="C111" s="56">
         <v>0.05</v>
       </c>
       <c r="D111" s="1">
@@ -58486,10 +57251,10 @@
       </c>
     </row>
     <row r="112" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B112" s="58" t="s">
+      <c r="B112" s="57" t="s">
         <v>1598</v>
       </c>
-      <c r="C112" s="57">
+      <c r="C112" s="56">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D112" s="1">
@@ -58501,12 +57266,12 @@
     </row>
     <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>1830</v>
+        <v>1792</v>
       </c>
       <c r="B114" s="38" t="s">
         <v>967</v>
       </c>
-      <c r="C114" s="59">
+      <c r="C114" s="58">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D114" s="1">
@@ -58520,7 +57285,7 @@
       <c r="B115" s="38" t="s">
         <v>970</v>
       </c>
-      <c r="C115" s="59">
+      <c r="C115" s="58">
         <v>0.05</v>
       </c>
       <c r="D115" s="1">
@@ -58534,7 +57299,7 @@
       <c r="B116" s="38" t="s">
         <v>973</v>
       </c>
-      <c r="C116" s="59">
+      <c r="C116" s="58">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D116" s="1">
@@ -58548,7 +57313,7 @@
       <c r="B117" s="38" t="s">
         <v>976</v>
       </c>
-      <c r="C117" s="59">
+      <c r="C117" s="58">
         <v>0.05</v>
       </c>
       <c r="D117" s="1">
@@ -58562,7 +57327,7 @@
       <c r="B118" s="38" t="s">
         <v>979</v>
       </c>
-      <c r="C118" s="59">
+      <c r="C118" s="58">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D118" s="1">
@@ -58574,12 +57339,12 @@
     </row>
     <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>1832</v>
+        <v>1794</v>
       </c>
       <c r="B120" s="13" t="s">
         <v>1656</v>
       </c>
-      <c r="C120" s="48">
+      <c r="C120" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D120" s="1">
@@ -58593,7 +57358,7 @@
       <c r="B121" s="13" t="s">
         <v>1661</v>
       </c>
-      <c r="C121" s="48">
+      <c r="C121" s="47">
         <v>0.05</v>
       </c>
       <c r="D121" s="1">
@@ -58607,7 +57372,7 @@
       <c r="B122" s="13" t="s">
         <v>1667</v>
       </c>
-      <c r="C122" s="48">
+      <c r="C122" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D122" s="1">
@@ -58619,12 +57384,12 @@
     </row>
     <row r="124" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>1833</v>
+        <v>1795</v>
       </c>
       <c r="B124" s="13" t="s">
         <v>1678</v>
       </c>
-      <c r="C124" s="48">
+      <c r="C124" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D124" s="1">
@@ -58638,7 +57403,7 @@
       <c r="B125" s="13" t="s">
         <v>1683</v>
       </c>
-      <c r="C125" s="48">
+      <c r="C125" s="47">
         <v>0.05</v>
       </c>
       <c r="D125" s="1">
@@ -58652,7 +57417,7 @@
       <c r="B126" s="13" t="s">
         <v>1689</v>
       </c>
-      <c r="C126" s="48">
+      <c r="C126" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D126" s="1">
@@ -58664,12 +57429,12 @@
     </row>
     <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>1834</v>
+        <v>1796</v>
       </c>
       <c r="B128" s="13" t="s">
         <v>1700</v>
       </c>
-      <c r="C128" s="48">
+      <c r="C128" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D128" s="1">
@@ -58683,7 +57448,7 @@
       <c r="B129" s="13" t="s">
         <v>1705</v>
       </c>
-      <c r="C129" s="48">
+      <c r="C129" s="47">
         <v>0.05</v>
       </c>
       <c r="D129" s="1">
@@ -58697,7 +57462,7 @@
       <c r="B130" s="13" t="s">
         <v>1711</v>
       </c>
-      <c r="C130" s="48">
+      <c r="C130" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D130" s="1">
@@ -58708,26 +57473,26 @@
       </c>
     </row>
     <row r="131" spans="1:6" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B131" s="60"/>
-      <c r="C131" s="61"/>
+      <c r="B131" s="59"/>
+      <c r="C131" s="60"/>
     </row>
     <row r="132" spans="1:6" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B132" s="60"/>
-      <c r="C132" s="61"/>
+      <c r="B132" s="59"/>
+      <c r="C132" s="60"/>
     </row>
     <row r="133" spans="1:6" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B133" s="60"/>
-      <c r="C133" s="61"/>
+      <c r="B133" s="59"/>
+      <c r="C133" s="60"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="47" t="s">
-        <v>1835</v>
+      <c r="A134" s="46" t="s">
+        <v>1797</v>
       </c>
       <c r="C134" s="1"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>1836</v>
+        <v>1798</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>1023</v>
@@ -58744,30 +57509,30 @@
       <c r="F135" s="1"/>
     </row>
     <row r="137" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="62" t="s">
-        <v>1837</v>
+      <c r="A137" s="61" t="s">
+        <v>1799</v>
       </c>
       <c r="B137" s="38" t="s">
         <v>984</v>
       </c>
-      <c r="C137" s="59">
+      <c r="C137" s="58">
         <v>0.01</v>
       </c>
       <c r="D137">
         <v>1</v>
       </c>
-      <c r="E137" s="63">
+      <c r="E137" s="62">
         <v>504.52</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="64" t="s">
-        <v>1838</v>
+      <c r="A139" s="63" t="s">
+        <v>1800</v>
       </c>
       <c r="B139" s="38" t="s">
         <v>997</v>
       </c>
-      <c r="C139" s="59">
+      <c r="C139" s="58">
         <v>0.2</v>
       </c>
       <c r="D139">
@@ -58778,8 +57543,8 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="65" t="s">
-        <v>1839</v>
+      <c r="A141" s="64" t="s">
+        <v>1801</v>
       </c>
       <c r="B141" s="42" t="s">
         <v>1010</v>
@@ -58790,18 +57555,18 @@
       <c r="D141">
         <v>1</v>
       </c>
-      <c r="E141" s="66">
+      <c r="E141" s="65">
         <v>854.65</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="67" t="s">
-        <v>1840</v>
+      <c r="A143" s="66" t="s">
+        <v>1802</v>
       </c>
       <c r="B143" t="s">
         <v>843</v>
       </c>
-      <c r="C143" s="53">
+      <c r="C143" s="52">
         <v>0.1</v>
       </c>
       <c r="D143">
@@ -58812,13 +57577,13 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="68" t="s">
-        <v>1841</v>
+      <c r="A144" s="67" t="s">
+        <v>1803</v>
       </c>
       <c r="B144" t="s">
         <v>1576</v>
       </c>
-      <c r="C144" s="53">
+      <c r="C144" s="52">
         <v>0.2</v>
       </c>
       <c r="D144">
@@ -58829,64 +57594,64 @@
       </c>
     </row>
     <row r="146" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="69" t="s">
-        <v>1842</v>
-      </c>
-      <c r="B146" s="70" t="s">
+      <c r="A146" s="68" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B146" s="69" t="s">
         <v>828</v>
       </c>
-      <c r="C146" s="48">
+      <c r="C146" s="47">
         <v>0.05</v>
       </c>
       <c r="D146" s="1">
         <v>2.5</v>
       </c>
-      <c r="E146" s="48">
+      <c r="E146" s="47">
         <v>722.56219999999996</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="69"/>
-      <c r="B147" s="70" t="s">
+      <c r="A147" s="68"/>
+      <c r="B147" s="69" t="s">
         <v>829</v>
       </c>
-      <c r="C147" s="48">
+      <c r="C147" s="47">
         <v>0.05</v>
       </c>
       <c r="D147" s="1">
         <v>2.5</v>
       </c>
-      <c r="E147" s="48">
+      <c r="E147" s="47">
         <v>722.56219999999996</v>
       </c>
     </row>
     <row r="148" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="69"/>
-      <c r="B148" s="70" t="s">
+      <c r="A148" s="68"/>
+      <c r="B148" s="69" t="s">
         <v>830</v>
       </c>
-      <c r="C148" s="48">
+      <c r="C148" s="47">
         <v>0.05</v>
       </c>
       <c r="D148" s="1">
         <v>2.5</v>
       </c>
-      <c r="E148" s="48">
+      <c r="E148" s="47">
         <v>722.56219999999996</v>
       </c>
     </row>
     <row r="149" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="69"/>
-      <c r="B149" s="70" t="s">
+      <c r="A149" s="68"/>
+      <c r="B149" s="69" t="s">
         <v>831</v>
       </c>
-      <c r="C149" s="48">
+      <c r="C149" s="47">
         <v>0.05</v>
       </c>
       <c r="D149" s="1">
         <v>2.5</v>
       </c>
-      <c r="E149" s="48">
+      <c r="E149" s="47">
         <v>722.56219999999996</v>
       </c>
     </row>
@@ -58894,250 +57659,63 @@
       <c r="B150" s="1"/>
     </row>
     <row r="151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="71" t="s">
-        <v>1843</v>
-      </c>
-      <c r="B151" s="69" t="s">
+      <c r="A151" s="70" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B151" s="68" t="s">
         <v>832</v>
       </c>
-      <c r="C151" s="48">
+      <c r="C151" s="47">
         <v>0.05</v>
       </c>
       <c r="D151" s="1">
         <v>2.5</v>
       </c>
-      <c r="E151" s="48">
+      <c r="E151" s="47">
         <v>722.56219999999996</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="71"/>
-      <c r="B152" s="69" t="s">
+      <c r="A152" s="70"/>
+      <c r="B152" s="68" t="s">
         <v>833</v>
       </c>
-      <c r="C152" s="48">
+      <c r="C152" s="47">
         <v>0.05</v>
       </c>
       <c r="D152" s="1">
         <v>2.5</v>
       </c>
-      <c r="E152" s="48">
+      <c r="E152" s="47">
         <v>722.56219999999996</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B153" s="69" t="s">
+      <c r="B153" s="68" t="s">
         <v>834</v>
       </c>
-      <c r="C153" s="48">
+      <c r="C153" s="47">
         <v>0.05</v>
       </c>
       <c r="D153" s="1">
         <v>2.5</v>
       </c>
-      <c r="E153" s="48">
+      <c r="E153" s="47">
         <v>722.56219999999996</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B154" s="69" t="s">
+      <c r="B154" s="68" t="s">
         <v>835</v>
       </c>
-      <c r="C154" s="48">
+      <c r="C154" s="47">
         <v>0.05</v>
       </c>
       <c r="D154" s="1">
         <v>2.5</v>
       </c>
-      <c r="E154" s="48">
+      <c r="E154" s="47">
         <v>722.56219999999996</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="47" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B158" s="1" t="s">
-        <v>1845</v>
-      </c>
-      <c r="C158" s="47">
-        <v>5</v>
-      </c>
-      <c r="D158" s="47">
-        <v>1</v>
-      </c>
-      <c r="E158" s="47">
-        <v>393.39</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B159" s="1" t="s">
-        <v>1846</v>
-      </c>
-      <c r="C159" s="47">
-        <v>5</v>
-      </c>
-      <c r="D159" s="47">
-        <v>1</v>
-      </c>
-      <c r="E159" s="47">
-        <v>393.39</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B160" s="1" t="s">
-        <v>1744</v>
-      </c>
-      <c r="C160" s="47">
-        <v>5</v>
-      </c>
-      <c r="D160" s="47">
-        <v>1</v>
-      </c>
-      <c r="E160" s="47">
-        <v>393.39</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B161" s="1" t="s">
-        <v>1746</v>
-      </c>
-      <c r="C161" s="47">
-        <v>5</v>
-      </c>
-      <c r="D161" s="47">
-        <v>1</v>
-      </c>
-      <c r="E161" s="47">
-        <v>393.39</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B162" s="1" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C162" s="47">
-        <v>5</v>
-      </c>
-      <c r="D162" s="47">
-        <v>1</v>
-      </c>
-      <c r="E162" s="47">
-        <v>393.39</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B164" s="1" t="s">
-        <v>1748</v>
-      </c>
-      <c r="C164" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D164" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E164" s="1">
-        <v>631.62</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B165" s="1" t="s">
-        <v>1751</v>
-      </c>
-      <c r="C165" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D165" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E165" s="1">
-        <v>629.61</v>
-      </c>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B166" s="1" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C166" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="D166" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E166" s="1">
-        <v>657.64</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B167" s="1" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C167" s="1">
-        <v>1.47</v>
-      </c>
-      <c r="D167" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E167" s="1">
-        <v>655.62</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B168" s="1" t="s">
-        <v>1762</v>
-      </c>
-      <c r="C168" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="D168" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E168" s="1">
-        <v>681.64</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B169" s="1" t="s">
-        <v>1764</v>
-      </c>
-      <c r="C169" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="D169" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E169" s="1">
-        <v>679.62</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B170" s="1" t="s">
-        <v>1771</v>
-      </c>
-      <c r="C170" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="D170" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E170" s="1">
-        <v>677.61</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B171" s="1" t="s">
-        <v>1778</v>
-      </c>
-      <c r="C171" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="D171" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E171" s="1">
-        <v>703.62</v>
       </c>
     </row>
   </sheetData>
